--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Poursuite_etudes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Poursuite_etudes/Appli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A371E0E-E9D6-4BD7-94DA-3D62E482A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{CABC753F-58D7-4D14-848C-C854A8594636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43AFEAB-3FAE-4E14-8015-96F1F782AADF}"/>
   <bookViews>
-    <workbookView xWindow="1463" yWindow="-98" windowWidth="19154" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="1823" windowWidth="9090" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>Type</t>
   </si>
@@ -230,10 +228,13 @@
 </t>
   </si>
   <si>
+    <t>Ecole</t>
+  </si>
+  <si>
     <t>ATS Bio</t>
   </si>
   <si>
-    <t>Lycée Pierre-Gilles de Genne</t>
+    <t>Pierre-Gilles de Genne</t>
   </si>
   <si>
     <t>11 Rue Pirandello</t>
@@ -261,6 +262,12 @@
   </si>
   <si>
     <t>Chatenay-Malabry</t>
+  </si>
+  <si>
+    <t>https://www.pharmacie.universite-paris-saclay.fr/</t>
+  </si>
+  <si>
+    <t>48.76172070884666, 2.2728060645193</t>
   </si>
   <si>
     <t>licence pro QHSSTE</t>
@@ -296,7 +303,7 @@
     <t>   https://iut.u-pec.fr/</t>
   </si>
   <si>
-    <t>Tel : 01 45 17 16 84/85</t>
+    <t>scol-iutcv@u-pec.fr //Tel : 01 45 17 16 84 85</t>
   </si>
   <si>
     <t>Licence professionnelle - Qualité, hygiène, sécurité, santé, environnement parcours Système de management intégré</t>
@@ -315,7 +322,28 @@
     <t>https://cyiut.cyu.fr/formations/autres-formations/lp-qualite-hygiene-securite-sante-environnement-parcours-systeme-de-management-integre</t>
   </si>
   <si>
-    <t>scol-iutcv@u-pec.fr</t>
+    <t>licence pro</t>
+  </si>
+  <si>
+    <t> campus des grans moulin</t>
+  </si>
+  <si>
+    <t>5 RUE Thomas mann</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>48.83672522266943, 2.3563509693553772</t>
+  </si>
+  <si>
+    <t>48.78812012246908, 2.4436508999999997</t>
+  </si>
+  <si>
+    <t>48.94962925496483, 2.2332876919202165</t>
+  </si>
+  <si>
+    <t>48.83030169741696, 2.3812734846587276</t>
   </si>
 </sst>
 </file>
@@ -326,7 +354,7 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +463,11 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -491,7 +524,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -621,6 +654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -646,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -968,69 +1004,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="30.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="47.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="29" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="30.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1328125" style="29" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.59765625" style="29" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.86328125" style="29" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.59765625" style="29" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1328125" style="29" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" style="29" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.86328125" style="29" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="22.59765625" style="29" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="47.1328125" style="29" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="47.1328125" style="28" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="47" style="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.73046875" style="29" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="44" style="28" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="46.140625" style="29" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="46.1328125" style="29" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="47" style="29" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="28" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="59.85546875" style="28" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="33.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="32.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="27.1328125" style="29" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="46.73046875" style="28" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="59.86328125" style="28" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="44.3984375" style="29" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1328125" style="29" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="33.59765625" style="29" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="36" style="29" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="28" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="33.5703125" style="28" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" style="28" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="41" max="42" width="33.28515625" style="28" customWidth="1"/>
+    <col min="36" max="36" width="32.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="25.1328125" style="28" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="33.59765625" style="28" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="33.3984375" style="28" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="37.59765625" style="29" hidden="1" customWidth="1"/>
+    <col min="41" max="42" width="33.265625" style="28" customWidth="1"/>
     <col min="43" max="43" width="15" style="39" customWidth="1"/>
-    <col min="44" max="44" width="33.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="42.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.28515625" style="40" customWidth="1"/>
-    <col min="47" max="47" width="33.28515625" style="28" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="45.42578125" style="41" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="17.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="40" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="42.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="29"/>
-    <col min="55" max="55" width="24.7109375" style="29" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" style="29"/>
-    <col min="57" max="57" width="24.7109375" style="29" customWidth="1"/>
-    <col min="58" max="59" width="12.85546875" style="29" customWidth="1"/>
-    <col min="60" max="65" width="12.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="66" max="75" width="12.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="33.265625" style="29" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="42.73046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="42.265625" style="40" customWidth="1"/>
+    <col min="47" max="47" width="33.265625" style="28" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="45.3984375" style="41" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="17.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1328125" style="40" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.3984375" style="29" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="42.73046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="42.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="11.3984375" style="29"/>
+    <col min="55" max="55" width="24.73046875" style="29" customWidth="1"/>
+    <col min="56" max="56" width="11.3984375" style="29"/>
+    <col min="57" max="57" width="24.73046875" style="29" customWidth="1"/>
+    <col min="58" max="59" width="12.86328125" style="29" customWidth="1"/>
+    <col min="60" max="65" width="12.86328125" style="29" hidden="1" customWidth="1"/>
+    <col min="66" max="75" width="12.86328125" style="27" hidden="1" customWidth="1"/>
     <col min="76" max="92" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="93" max="16384" width="11.42578125" style="29"/>
+    <col min="93" max="16384" width="11.3984375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="34" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:93" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="30">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
@@ -1378,7 +1414,7 @@
       </c>
       <c r="CO2" s="20"/>
     </row>
-    <row r="3" spans="1:93" s="20" customFormat="1" ht="240">
+    <row r="3" spans="1:93" s="20" customFormat="1" ht="228" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>53</v>
       </c>
@@ -1450,22 +1486,24 @@
       <c r="BA3" s="31"/>
       <c r="BB3" s="20">
         <f>RANK(BX3,$BX$3:$BX$111)+COUNTIF(BX$3:BX4,BX3)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="12" t="str">
         <f t="shared" ref="BC3:BC33" si="0">"N° "&amp;BB3&amp;" "&amp;C3</f>
-        <v>N° 2 université paris 13 IUT saint denis</v>
+        <v>N° 1 université paris 13 IUT saint denis</v>
       </c>
       <c r="BD3" s="20">
         <f>RANK(BY3,$BY$3:$BY$111)+COUNTIF(BY$3:BY4,BY3)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="12" t="str">
         <f t="shared" ref="BE3:BE33" si="1">"N° "&amp;BD3&amp;" "&amp;C3</f>
-        <v>N° 2 université paris 13 IUT saint denis</v>
+        <v>N° 1 université paris 13 IUT saint denis</v>
       </c>
       <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
+      <c r="BG3" s="45">
+        <v>44621</v>
+      </c>
       <c r="BH3" s="22"/>
       <c r="BI3" s="22"/>
       <c r="BJ3" s="22"/>
@@ -1484,11 +1522,11 @@
       <c r="BW3" s="23"/>
       <c r="BX3" s="20">
         <f t="shared" ref="BX3:BX33" si="2">((BF3+BG3)*9)+((BH3+BI3)*8)+((BJ3+BK3)*7)+((BL3+BM3)*6)+((BN3+BO3)*5)+((BP3+BQ3)*4)+((BR3+BS3)*3)+((BT3+BU3)*2)+((BV3+BW3)*1)</f>
-        <v>0</v>
+        <v>401589</v>
       </c>
       <c r="BY3" s="20">
         <f t="shared" ref="BY3:BY33" si="3">((BG3)*9)+((BI3)*8)+((BK3)*7)+((BM3)*6)+((BO3)*5)+((BQ3)*4)+((BS3)*3)+((BU3)*2)+((BW3)*1)</f>
-        <v>0</v>
+        <v>401589</v>
       </c>
       <c r="BZ3" s="20">
         <f t="shared" ref="BZ3:BZ33" si="4">BJ3</f>
@@ -1547,15 +1585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:93" s="20" customFormat="1">
+    <row r="4" spans="1:93" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -1595,24 +1633,26 @@
       <c r="AM4" s="13"/>
       <c r="AN4" s="13"/>
       <c r="AO4" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AP4" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AQ4" s="24">
         <v>75013</v>
       </c>
       <c r="AR4" s="25"/>
       <c r="AS4" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="AT4" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AU4" s="19"/>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
       <c r="AZ4" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA4" s="31"/>
       <c r="BB4" s="20">
@@ -1621,7 +1661,7 @@
       </c>
       <c r="BC4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>N° 3 Lycée Pierre-Gilles de Genne</v>
+        <v>N° 3 Pierre-Gilles de Genne</v>
       </c>
       <c r="BD4" s="20">
         <f>RANK(BY4,$BY$3:$BY$111)+COUNTIF(BY$3:BY5,BY4)-1</f>
@@ -1629,7 +1669,7 @@
       </c>
       <c r="BE4" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>N° 3 Lycée Pierre-Gilles de Genne</v>
+        <v>N° 3 Pierre-Gilles de Genne</v>
       </c>
       <c r="BF4" s="22"/>
       <c r="BG4" s="22"/>
@@ -1714,15 +1754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:93" s="20" customFormat="1">
+    <row r="5" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -1762,17 +1802,21 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AP5" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AQ5" s="24">
         <v>92290</v>
       </c>
       <c r="AR5" s="25"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
+      <c r="AS5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="AU5" s="19"/>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
@@ -1877,15 +1921,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:93" s="20" customFormat="1">
+    <row r="6" spans="1:93" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1925,20 +1969,20 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
       <c r="AO6" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AQ6" s="24">
         <v>75270</v>
       </c>
       <c r="AR6" s="25"/>
       <c r="AS6" s="33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AT6" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AU6" s="19"/>
       <c r="AW6" s="13"/>
@@ -2044,15 +2088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:93" s="20" customFormat="1" ht="38.25">
+    <row r="7" spans="1:93" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -2092,24 +2136,26 @@
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AP7" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AQ7" s="24">
         <v>94000</v>
       </c>
       <c r="AR7" s="25"/>
       <c r="AS7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT7" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="AT7" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="AU7" s="19"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
-      <c r="AZ7" s="17" t="s">
-        <v>82</v>
+      <c r="AZ7" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="BA7" s="31"/>
       <c r="BB7" s="20">
@@ -2211,15 +2257,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:93" s="20" customFormat="1" ht="63.75">
+    <row r="8" spans="1:93" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -2259,25 +2305,25 @@
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP8" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AQ8" s="24">
         <v>95100</v>
       </c>
       <c r="AR8" s="25"/>
       <c r="AS8" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT8" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="AT8" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="AU8" s="19"/>
       <c r="AW8" s="13"/>
       <c r="AX8" s="13"/>
-      <c r="AZ8" s="33" t="s">
-        <v>88</v>
-      </c>
+      <c r="AZ8" s="33"/>
       <c r="BA8" s="31"/>
       <c r="BB8" s="20">
         <f>RANK(BX8,$BX$3:$BX$111)+COUNTIF(BX$3:BX9,BX8)-1</f>
@@ -2378,10 +2424,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:93" s="20" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="1:93" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2419,12 +2471,20 @@
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="24"/>
+      <c r="AO9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ9" s="24">
+        <v>75013</v>
+      </c>
       <c r="AR9" s="25"/>
       <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
+      <c r="AT9" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="AU9" s="19"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
@@ -2436,7 +2496,7 @@
       </c>
       <c r="BC9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">N° 8 </v>
+        <v>N° 8  campus des grans moulin</v>
       </c>
       <c r="BD9" s="20">
         <f>RANK(BY9,$BY$3:$BY$111)+COUNTIF(BY$3:BY10,BY9)-1</f>
@@ -2444,7 +2504,7 @@
       </c>
       <c r="BE9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">N° 8 </v>
+        <v>N° 8  campus des grans moulin</v>
       </c>
       <c r="BF9" s="22"/>
       <c r="BG9" s="22"/>
@@ -2529,9 +2589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:93" s="20" customFormat="1" ht="28.5" customHeight="1">
+    <row r="10" spans="1:93" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
@@ -2680,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:93" s="20" customFormat="1">
+    <row r="11" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -2831,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:93" s="20" customFormat="1">
+    <row r="12" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -2982,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:93" s="20" customFormat="1">
+    <row r="13" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -3133,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:93" s="20" customFormat="1">
+    <row r="14" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -3284,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:93" s="20" customFormat="1">
+    <row r="15" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -3435,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:93" s="20" customFormat="1">
+    <row r="16" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -3586,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91" s="20" customFormat="1">
+    <row r="17" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -3737,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91" s="20" customFormat="1">
+    <row r="18" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -3888,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91" s="20" customFormat="1">
+    <row r="19" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -4039,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91" s="20" customFormat="1">
+    <row r="20" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -4190,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91" s="20" customFormat="1">
+    <row r="21" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -4341,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:91" s="20" customFormat="1">
+    <row r="22" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -4492,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91" s="20" customFormat="1">
+    <row r="23" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4643,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91" s="20" customFormat="1">
+    <row r="24" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -4794,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91" s="20" customFormat="1">
+    <row r="25" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -4945,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91" s="20" customFormat="1">
+    <row r="26" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -5096,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" s="20" customFormat="1">
+    <row r="27" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -5247,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:91" s="20" customFormat="1">
+    <row r="28" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -5398,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:91" s="20" customFormat="1">
+    <row r="29" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -5549,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" s="20" customFormat="1">
+    <row r="30" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -5700,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:91" s="20" customFormat="1">
+    <row r="31" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -5851,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:91" s="20" customFormat="1">
+    <row r="32" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
@@ -6002,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:93" s="20" customFormat="1">
+    <row r="33" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
@@ -6153,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:93" s="20" customFormat="1">
+    <row r="34" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -6304,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:93" s="20" customFormat="1">
+    <row r="35" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -6455,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:93" s="20" customFormat="1">
+    <row r="36" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -6606,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:93" s="20" customFormat="1">
+    <row r="37" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -6757,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:93" s="20" customFormat="1">
+    <row r="38" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -6908,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:93">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -7063,7 +7123,7 @@
       <c r="CN39" s="20"/>
       <c r="CO39" s="20"/>
     </row>
-    <row r="40" spans="1:93" s="20" customFormat="1">
+    <row r="40" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -7214,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:93" s="20" customFormat="1">
+    <row r="41" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -7365,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:93">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -7520,7 +7580,7 @@
       <c r="CN42" s="20"/>
       <c r="CO42" s="20"/>
     </row>
-    <row r="43" spans="1:93" s="20" customFormat="1">
+    <row r="43" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
@@ -7671,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:93">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
@@ -7826,7 +7886,7 @@
       <c r="CN44" s="20"/>
       <c r="CO44" s="20"/>
     </row>
-    <row r="45" spans="1:93" s="20" customFormat="1">
+    <row r="45" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
@@ -7977,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:93" s="20" customFormat="1">
+    <row r="46" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -8128,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:93">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -8283,7 +8343,7 @@
       <c r="CN47" s="20"/>
       <c r="CO47" s="20"/>
     </row>
-    <row r="48" spans="1:93" s="20" customFormat="1">
+    <row r="48" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -8434,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:93" s="20" customFormat="1">
+    <row r="49" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -8585,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:93">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -8740,7 +8800,7 @@
       <c r="CN50" s="20"/>
       <c r="CO50" s="20"/>
     </row>
-    <row r="51" spans="1:93" s="20" customFormat="1">
+    <row r="51" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -8891,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:93" s="20" customFormat="1">
+    <row r="52" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -9042,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:93">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -9197,7 +9257,7 @@
       <c r="CN53" s="20"/>
       <c r="CO53" s="20"/>
     </row>
-    <row r="54" spans="1:93" s="20" customFormat="1">
+    <row r="54" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -9349,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:93" s="20" customFormat="1">
+    <row r="55" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -9500,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:93">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -9655,7 +9715,7 @@
       <c r="CN56" s="20"/>
       <c r="CO56" s="20"/>
     </row>
-    <row r="57" spans="1:93" s="20" customFormat="1">
+    <row r="57" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -9806,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:93" s="20" customFormat="1">
+    <row r="58" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -9957,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:93">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -10112,7 +10172,7 @@
       <c r="CN59" s="20"/>
       <c r="CO59" s="20"/>
     </row>
-    <row r="60" spans="1:93" s="20" customFormat="1">
+    <row r="60" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -10263,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:93" s="20" customFormat="1">
+    <row r="61" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -10414,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:93">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -10569,7 +10629,7 @@
       <c r="CN62" s="20"/>
       <c r="CO62" s="20"/>
     </row>
-    <row r="63" spans="1:93" s="20" customFormat="1">
+    <row r="63" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -10720,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:93">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -10875,7 +10935,7 @@
       <c r="CN64" s="20"/>
       <c r="CO64" s="20"/>
     </row>
-    <row r="65" spans="1:93" s="20" customFormat="1">
+    <row r="65" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -11026,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:93" s="20" customFormat="1">
+    <row r="66" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
@@ -11177,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:93">
+    <row r="67" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -11332,7 +11392,7 @@
       <c r="CN67" s="20"/>
       <c r="CO67" s="20"/>
     </row>
-    <row r="68" spans="1:93" s="20" customFormat="1">
+    <row r="68" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
@@ -11483,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:93" s="20" customFormat="1">
+    <row r="69" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -11634,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:93">
+    <row r="70" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -11789,7 +11849,7 @@
       <c r="CN70" s="20"/>
       <c r="CO70" s="20"/>
     </row>
-    <row r="71" spans="1:93" s="20" customFormat="1">
+    <row r="71" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
@@ -11940,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:93" s="20" customFormat="1">
+    <row r="72" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -12091,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:93">
+    <row r="73" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -12246,7 +12306,7 @@
       <c r="CN73" s="20"/>
       <c r="CO73" s="20"/>
     </row>
-    <row r="74" spans="1:93" s="20" customFormat="1">
+    <row r="74" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
@@ -12397,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:93" s="20" customFormat="1">
+    <row r="75" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
@@ -12548,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:93" s="20" customFormat="1">
+    <row r="76" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
@@ -12699,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:93">
+    <row r="77" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -12854,7 +12914,7 @@
       <c r="CN77" s="20"/>
       <c r="CO77" s="20"/>
     </row>
-    <row r="78" spans="1:93" s="20" customFormat="1">
+    <row r="78" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
@@ -13005,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:93" s="20" customFormat="1">
+    <row r="79" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
@@ -13156,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:93">
+    <row r="80" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
@@ -13311,7 +13371,7 @@
       <c r="CN80" s="20"/>
       <c r="CO80" s="20"/>
     </row>
-    <row r="81" spans="1:93" s="20" customFormat="1">
+    <row r="81" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
@@ -13462,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:93" s="20" customFormat="1">
+    <row r="82" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
@@ -13613,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:93">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
@@ -13768,7 +13828,7 @@
       <c r="CN83" s="20"/>
       <c r="CO83" s="20"/>
     </row>
-    <row r="84" spans="1:93" s="20" customFormat="1">
+    <row r="84" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
@@ -13919,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" s="20" customFormat="1">
+    <row r="85" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
@@ -14070,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:93" s="20" customFormat="1">
+    <row r="86" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
@@ -14221,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:93" s="20" customFormat="1">
+    <row r="87" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
@@ -14372,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:93">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -14527,7 +14587,7 @@
       <c r="CN88" s="20"/>
       <c r="CO88" s="20"/>
     </row>
-    <row r="89" spans="1:93" s="20" customFormat="1">
+    <row r="89" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -14678,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:93" s="20" customFormat="1">
+    <row r="90" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -14829,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:93">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -14984,7 +15044,7 @@
       <c r="CN91" s="20"/>
       <c r="CO91" s="20"/>
     </row>
-    <row r="92" spans="1:93" s="20" customFormat="1">
+    <row r="92" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
@@ -15135,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:93">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -15290,7 +15350,7 @@
       <c r="CN93" s="20"/>
       <c r="CO93" s="20"/>
     </row>
-    <row r="94" spans="1:93" s="20" customFormat="1">
+    <row r="94" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -15441,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:93" s="20" customFormat="1">
+    <row r="95" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -15592,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:93" s="20" customFormat="1">
+    <row r="96" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
@@ -15743,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:93">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
@@ -15898,7 +15958,7 @@
       <c r="CN97" s="20"/>
       <c r="CO97" s="20"/>
     </row>
-    <row r="98" spans="1:93" s="20" customFormat="1">
+    <row r="98" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
@@ -16049,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:93" s="20" customFormat="1">
+    <row r="99" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -16200,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:93">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
@@ -16355,7 +16415,7 @@
       <c r="CN100" s="20"/>
       <c r="CO100" s="20"/>
     </row>
-    <row r="101" spans="1:93" s="20" customFormat="1">
+    <row r="101" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
@@ -16506,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:93" s="20" customFormat="1">
+    <row r="102" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -16657,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:93">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
@@ -16812,12 +16872,12 @@
       <c r="CN103" s="20"/>
       <c r="CO103" s="20"/>
     </row>
-    <row r="104" spans="1:93" s="20" customFormat="1">
+    <row r="104" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
       <c r="D104" s="12" t="str">
-        <f t="shared" ref="D97:D104" si="90">IF(BF104&lt;&gt;0,";2022_BioQ1="&amp;BF104," ")&amp;IF(BG104&lt;&gt;0," ; 2022_BioQ2="&amp;BG104," ")&amp;IF(BH104&lt;&gt;0,";2021_BioQ1="&amp;BH104," ")&amp;IF(BI104&lt;&gt;0," ; 2021_QIAB2="&amp;BI104," ")&amp;IF(BJ104&lt;&gt;0,";2020_QIAB1="&amp;BJ104," ")&amp;IF(BK104&lt;&gt;0," ; 2020_QIAB2="&amp;BK104," ")&amp;IF(BL104&lt;&gt;0,";2019_QIAB1="&amp;BL104," ")&amp;IF(BM104&lt;&gt;0," ; 2019_QIAB2="&amp;BM104," ")&amp;IF(BN104&lt;&gt;0,";2018_QIAB1="&amp;BN104," ")&amp;IF(BO104&lt;&gt;0," ; 2018_QIAB2="&amp;BO104," ")&amp;IF(BP104&lt;&gt;0," ; 2017_QIAB1="&amp;BP104," ")&amp;IF(BQ104&lt;&gt;0," ; 2017_QIAB2="&amp;BQ104," ")&amp;IF(BR104&lt;&gt;0," ; 2016_QIAB1="&amp;BR104," ")&amp;IF(BS104&lt;&gt;0," ; 2016_QIAB2="&amp;BS104," ")&amp;IF(BT104&lt;&gt;0," ; 2015_QIAB1="&amp;BT104," ")&amp;IF(BU104&lt;&gt;0," ; 2015_QIAB2="&amp;BU104," ")&amp;IF(BV104&lt;&gt;0," ; 2014_QIAB1="&amp;BV104," ")&amp;IF(BW104&lt;&gt;0," ; 2014_QIAB2="&amp;BW104," ")</f>
+        <f t="shared" ref="D104" si="90">IF(BF104&lt;&gt;0,";2022_BioQ1="&amp;BF104," ")&amp;IF(BG104&lt;&gt;0," ; 2022_BioQ2="&amp;BG104," ")&amp;IF(BH104&lt;&gt;0,";2021_BioQ1="&amp;BH104," ")&amp;IF(BI104&lt;&gt;0," ; 2021_QIAB2="&amp;BI104," ")&amp;IF(BJ104&lt;&gt;0,";2020_QIAB1="&amp;BJ104," ")&amp;IF(BK104&lt;&gt;0," ; 2020_QIAB2="&amp;BK104," ")&amp;IF(BL104&lt;&gt;0,";2019_QIAB1="&amp;BL104," ")&amp;IF(BM104&lt;&gt;0," ; 2019_QIAB2="&amp;BM104," ")&amp;IF(BN104&lt;&gt;0,";2018_QIAB1="&amp;BN104," ")&amp;IF(BO104&lt;&gt;0," ; 2018_QIAB2="&amp;BO104," ")&amp;IF(BP104&lt;&gt;0," ; 2017_QIAB1="&amp;BP104," ")&amp;IF(BQ104&lt;&gt;0," ; 2017_QIAB2="&amp;BQ104," ")&amp;IF(BR104&lt;&gt;0," ; 2016_QIAB1="&amp;BR104," ")&amp;IF(BS104&lt;&gt;0," ; 2016_QIAB2="&amp;BS104," ")&amp;IF(BT104&lt;&gt;0," ; 2015_QIAB1="&amp;BT104," ")&amp;IF(BU104&lt;&gt;0," ; 2015_QIAB2="&amp;BU104," ")&amp;IF(BV104&lt;&gt;0," ; 2014_QIAB1="&amp;BV104," ")&amp;IF(BW104&lt;&gt;0," ; 2014_QIAB2="&amp;BW104," ")</f>
         <v xml:space="preserve">                  </v>
       </c>
       <c r="E104" s="13"/>
@@ -16966,12 +17026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:93">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="12" t="str">
-        <f t="shared" ref="D95:D112" si="91">IF(BF105&lt;&gt;0,";2022_BioQ1="&amp;BF105," ")&amp;IF(BG105&lt;&gt;0," ; 2022_BioQ2="&amp;BG105," ")&amp;IF(BH105&lt;&gt;0,";2021_BioQ1="&amp;BH105," ")&amp;IF(BI105&lt;&gt;0," ; 2021_QIAB2="&amp;BI105," ")&amp;IF(BJ105&lt;&gt;0,";2020_QIAB1="&amp;BJ105," ")&amp;IF(BK105&lt;&gt;0," ; 2020_QIAB2="&amp;BK105," ")&amp;IF(BL105&lt;&gt;0,";2019_QIAB1="&amp;BL105," ")&amp;IF(BM105&lt;&gt;0," ; 2019_QIAB2="&amp;BM105," ")&amp;IF(BN105&lt;&gt;0,";2018_QIAB1="&amp;BN105," ")&amp;IF(BO105&lt;&gt;0," ; 2018_QIAB2="&amp;BO105," ")&amp;IF(BP105&lt;&gt;0," ; 2017_QIAB1="&amp;BP105," ")&amp;IF(BQ105&lt;&gt;0," ; 2017_QIAB2="&amp;BQ105," ")&amp;IF(BR105&lt;&gt;0," ; 2016_QIAB1="&amp;BR105," ")&amp;IF(BS105&lt;&gt;0," ; 2016_QIAB2="&amp;BS105," ")&amp;IF(BT105&lt;&gt;0," ; 2015_QIAB1="&amp;BT105," ")&amp;IF(BU105&lt;&gt;0," ; 2015_QIAB2="&amp;BU105," ")&amp;IF(BV105&lt;&gt;0," ; 2014_QIAB1="&amp;BV105," ")&amp;IF(BW105&lt;&gt;0," ; 2014_QIAB2="&amp;BW105," ")</f>
+        <f t="shared" ref="D105:D112" si="91">IF(BF105&lt;&gt;0,";2022_BioQ1="&amp;BF105," ")&amp;IF(BG105&lt;&gt;0," ; 2022_BioQ2="&amp;BG105," ")&amp;IF(BH105&lt;&gt;0,";2021_BioQ1="&amp;BH105," ")&amp;IF(BI105&lt;&gt;0," ; 2021_QIAB2="&amp;BI105," ")&amp;IF(BJ105&lt;&gt;0,";2020_QIAB1="&amp;BJ105," ")&amp;IF(BK105&lt;&gt;0," ; 2020_QIAB2="&amp;BK105," ")&amp;IF(BL105&lt;&gt;0,";2019_QIAB1="&amp;BL105," ")&amp;IF(BM105&lt;&gt;0," ; 2019_QIAB2="&amp;BM105," ")&amp;IF(BN105&lt;&gt;0,";2018_QIAB1="&amp;BN105," ")&amp;IF(BO105&lt;&gt;0," ; 2018_QIAB2="&amp;BO105," ")&amp;IF(BP105&lt;&gt;0," ; 2017_QIAB1="&amp;BP105," ")&amp;IF(BQ105&lt;&gt;0," ; 2017_QIAB2="&amp;BQ105," ")&amp;IF(BR105&lt;&gt;0," ; 2016_QIAB1="&amp;BR105," ")&amp;IF(BS105&lt;&gt;0," ; 2016_QIAB2="&amp;BS105," ")&amp;IF(BT105&lt;&gt;0," ; 2015_QIAB1="&amp;BT105," ")&amp;IF(BU105&lt;&gt;0," ; 2015_QIAB2="&amp;BU105," ")&amp;IF(BV105&lt;&gt;0," ; 2014_QIAB1="&amp;BV105," ")&amp;IF(BW105&lt;&gt;0," ; 2014_QIAB2="&amp;BW105," ")</f>
         <v xml:space="preserve">                  </v>
       </c>
       <c r="E105" s="13"/>
@@ -17124,7 +17184,7 @@
       <c r="CN105" s="20"/>
       <c r="CO105" s="20"/>
     </row>
-    <row r="106" spans="1:93" s="20" customFormat="1">
+    <row r="106" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
@@ -17278,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:93" s="20" customFormat="1">
+    <row r="107" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
@@ -17432,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:93">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
@@ -17590,7 +17650,7 @@
       <c r="CN108" s="20"/>
       <c r="CO108" s="20"/>
     </row>
-    <row r="109" spans="1:93" s="20" customFormat="1">
+    <row r="109" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
@@ -17744,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:93" s="20" customFormat="1">
+    <row r="110" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
@@ -17898,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:93">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
@@ -18056,7 +18116,7 @@
       <c r="CN111" s="20"/>
       <c r="CO111" s="20"/>
     </row>
-    <row r="112" spans="1:93" s="20" customFormat="1">
+    <row r="112" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
@@ -18210,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:91">
+    <row r="113" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -18258,7 +18318,7 @@
       <c r="CL113" s="21"/>
       <c r="CM113" s="21"/>
     </row>
-    <row r="114" spans="4:91">
+    <row r="114" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -18305,7 +18365,7 @@
       <c r="CL114" s="21"/>
       <c r="CM114" s="21"/>
     </row>
-    <row r="115" spans="4:91">
+    <row r="115" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
@@ -18352,7 +18412,7 @@
       <c r="CL115" s="21"/>
       <c r="CM115" s="21"/>
     </row>
-    <row r="116" spans="4:91">
+    <row r="116" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
@@ -18399,7 +18459,7 @@
       <c r="CL116" s="21"/>
       <c r="CM116" s="21"/>
     </row>
-    <row r="117" spans="4:91">
+    <row r="117" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
@@ -18446,7 +18506,7 @@
       <c r="CL117" s="21"/>
       <c r="CM117" s="21"/>
     </row>
-    <row r="118" spans="4:91">
+    <row r="118" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -18493,7 +18553,7 @@
       <c r="CL118" s="21"/>
       <c r="CM118" s="21"/>
     </row>
-    <row r="119" spans="4:91">
+    <row r="119" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -18540,7 +18600,7 @@
       <c r="CL119" s="21"/>
       <c r="CM119" s="21"/>
     </row>
-    <row r="120" spans="4:91">
+    <row r="120" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -18587,7 +18647,7 @@
       <c r="CL120" s="21"/>
       <c r="CM120" s="21"/>
     </row>
-    <row r="121" spans="4:91">
+    <row r="121" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
@@ -18634,7 +18694,7 @@
       <c r="CL121" s="21"/>
       <c r="CM121" s="21"/>
     </row>
-    <row r="122" spans="4:91">
+    <row r="122" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
@@ -18681,7 +18741,7 @@
       <c r="CL122" s="21"/>
       <c r="CM122" s="21"/>
     </row>
-    <row r="123" spans="4:91">
+    <row r="123" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
@@ -18728,7 +18788,7 @@
       <c r="CL123" s="21"/>
       <c r="CM123" s="21"/>
     </row>
-    <row r="124" spans="4:91">
+    <row r="124" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -18775,7 +18835,7 @@
       <c r="CL124" s="21"/>
       <c r="CM124" s="21"/>
     </row>
-    <row r="125" spans="4:91">
+    <row r="125" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
@@ -18822,7 +18882,7 @@
       <c r="CL125" s="21"/>
       <c r="CM125" s="21"/>
     </row>
-    <row r="126" spans="4:91">
+    <row r="126" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
@@ -18869,7 +18929,7 @@
       <c r="CL126" s="21"/>
       <c r="CM126" s="21"/>
     </row>
-    <row r="127" spans="4:91">
+    <row r="127" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
@@ -18916,7 +18976,7 @@
       <c r="CL127" s="21"/>
       <c r="CM127" s="21"/>
     </row>
-    <row r="128" spans="4:91">
+    <row r="128" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
@@ -18963,7 +19023,7 @@
       <c r="CL128" s="21"/>
       <c r="CM128" s="21"/>
     </row>
-    <row r="129" spans="4:91">
+    <row r="129" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
@@ -19010,7 +19070,7 @@
       <c r="CL129" s="21"/>
       <c r="CM129" s="21"/>
     </row>
-    <row r="130" spans="4:91">
+    <row r="130" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
@@ -19057,7 +19117,7 @@
       <c r="CL130" s="21"/>
       <c r="CM130" s="21"/>
     </row>
-    <row r="131" spans="4:91">
+    <row r="131" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -19104,7 +19164,7 @@
       <c r="CL131" s="21"/>
       <c r="CM131" s="21"/>
     </row>
-    <row r="132" spans="4:91">
+    <row r="132" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -19151,7 +19211,7 @@
       <c r="CL132" s="21"/>
       <c r="CM132" s="21"/>
     </row>
-    <row r="133" spans="4:91">
+    <row r="133" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
@@ -19198,7 +19258,7 @@
       <c r="CL133" s="21"/>
       <c r="CM133" s="21"/>
     </row>
-    <row r="134" spans="4:91">
+    <row r="134" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
@@ -19245,7 +19305,7 @@
       <c r="CL134" s="21"/>
       <c r="CM134" s="21"/>
     </row>
-    <row r="135" spans="4:91">
+    <row r="135" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D135" s="21"/>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
@@ -19292,7 +19352,7 @@
       <c r="CL135" s="21"/>
       <c r="CM135" s="21"/>
     </row>
-    <row r="136" spans="4:91">
+    <row r="136" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
       <c r="F136" s="21"/>
@@ -19339,7 +19399,7 @@
       <c r="CL136" s="21"/>
       <c r="CM136" s="21"/>
     </row>
-    <row r="137" spans="4:91">
+    <row r="137" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
@@ -19386,7 +19446,7 @@
       <c r="CL137" s="21"/>
       <c r="CM137" s="21"/>
     </row>
-    <row r="138" spans="4:91">
+    <row r="138" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
@@ -19433,7 +19493,7 @@
       <c r="CL138" s="21"/>
       <c r="CM138" s="21"/>
     </row>
-    <row r="139" spans="4:91">
+    <row r="139" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
@@ -19480,7 +19540,7 @@
       <c r="CL139" s="21"/>
       <c r="CM139" s="21"/>
     </row>
-    <row r="140" spans="4:91">
+    <row r="140" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
@@ -19527,7 +19587,7 @@
       <c r="CL140" s="21"/>
       <c r="CM140" s="21"/>
     </row>
-    <row r="141" spans="4:91">
+    <row r="141" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
@@ -19574,7 +19634,7 @@
       <c r="CL141" s="21"/>
       <c r="CM141" s="21"/>
     </row>
-    <row r="142" spans="4:91">
+    <row r="142" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
@@ -19621,7 +19681,7 @@
       <c r="CL142" s="21"/>
       <c r="CM142" s="21"/>
     </row>
-    <row r="143" spans="4:91">
+    <row r="143" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
@@ -19668,7 +19728,7 @@
       <c r="CL143" s="21"/>
       <c r="CM143" s="21"/>
     </row>
-    <row r="144" spans="4:91">
+    <row r="144" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
@@ -19715,7 +19775,7 @@
       <c r="CL144" s="21"/>
       <c r="CM144" s="21"/>
     </row>
-    <row r="145" spans="4:91">
+    <row r="145" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
@@ -19762,7 +19822,7 @@
       <c r="CL145" s="21"/>
       <c r="CM145" s="21"/>
     </row>
-    <row r="146" spans="4:91">
+    <row r="146" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -19809,7 +19869,7 @@
       <c r="CL146" s="21"/>
       <c r="CM146" s="21"/>
     </row>
-    <row r="147" spans="4:91">
+    <row r="147" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -19856,7 +19916,7 @@
       <c r="CL147" s="21"/>
       <c r="CM147" s="21"/>
     </row>
-    <row r="148" spans="4:91">
+    <row r="148" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -19903,7 +19963,7 @@
       <c r="CL148" s="21"/>
       <c r="CM148" s="21"/>
     </row>
-    <row r="149" spans="4:91">
+    <row r="149" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -19950,7 +20010,7 @@
       <c r="CL149" s="21"/>
       <c r="CM149" s="21"/>
     </row>
-    <row r="150" spans="4:91">
+    <row r="150" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -19997,7 +20057,7 @@
       <c r="CL150" s="21"/>
       <c r="CM150" s="21"/>
     </row>
-    <row r="151" spans="4:91">
+    <row r="151" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -20044,7 +20104,7 @@
       <c r="CL151" s="21"/>
       <c r="CM151" s="21"/>
     </row>
-    <row r="152" spans="4:91">
+    <row r="152" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -20091,7 +20151,7 @@
       <c r="CL152" s="21"/>
       <c r="CM152" s="21"/>
     </row>
-    <row r="153" spans="4:91">
+    <row r="153" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -20138,7 +20198,7 @@
       <c r="CL153" s="21"/>
       <c r="CM153" s="21"/>
     </row>
-    <row r="154" spans="4:91">
+    <row r="154" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
@@ -20185,7 +20245,7 @@
       <c r="CL154" s="21"/>
       <c r="CM154" s="21"/>
     </row>
-    <row r="155" spans="4:91">
+    <row r="155" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -20232,7 +20292,7 @@
       <c r="CL155" s="21"/>
       <c r="CM155" s="21"/>
     </row>
-    <row r="156" spans="4:91">
+    <row r="156" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -20279,7 +20339,7 @@
       <c r="CL156" s="21"/>
       <c r="CM156" s="21"/>
     </row>
-    <row r="157" spans="4:91">
+    <row r="157" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
@@ -20326,7 +20386,7 @@
       <c r="CL157" s="21"/>
       <c r="CM157" s="21"/>
     </row>
-    <row r="158" spans="4:91">
+    <row r="158" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -20373,7 +20433,7 @@
       <c r="CL158" s="21"/>
       <c r="CM158" s="21"/>
     </row>
-    <row r="159" spans="4:91">
+    <row r="159" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
@@ -20420,7 +20480,7 @@
       <c r="CL159" s="21"/>
       <c r="CM159" s="21"/>
     </row>
-    <row r="160" spans="4:91">
+    <row r="160" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -20467,7 +20527,7 @@
       <c r="CL160" s="21"/>
       <c r="CM160" s="21"/>
     </row>
-    <row r="161" spans="4:91">
+    <row r="161" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -20514,7 +20574,7 @@
       <c r="CL161" s="21"/>
       <c r="CM161" s="21"/>
     </row>
-    <row r="162" spans="4:91">
+    <row r="162" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -20561,7 +20621,7 @@
       <c r="CL162" s="21"/>
       <c r="CM162" s="21"/>
     </row>
-    <row r="163" spans="4:91">
+    <row r="163" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
@@ -20608,7 +20668,7 @@
       <c r="CL163" s="21"/>
       <c r="CM163" s="21"/>
     </row>
-    <row r="164" spans="4:91">
+    <row r="164" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
@@ -20655,7 +20715,7 @@
       <c r="CL164" s="21"/>
       <c r="CM164" s="21"/>
     </row>
-    <row r="165" spans="4:91">
+    <row r="165" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
@@ -20702,7 +20762,7 @@
       <c r="CL165" s="21"/>
       <c r="CM165" s="21"/>
     </row>
-    <row r="166" spans="4:91">
+    <row r="166" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
@@ -20749,7 +20809,7 @@
       <c r="CL166" s="21"/>
       <c r="CM166" s="21"/>
     </row>
-    <row r="167" spans="4:91">
+    <row r="167" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
@@ -20796,7 +20856,7 @@
       <c r="CL167" s="21"/>
       <c r="CM167" s="21"/>
     </row>
-    <row r="168" spans="4:91">
+    <row r="168" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
@@ -20843,7 +20903,7 @@
       <c r="CL168" s="21"/>
       <c r="CM168" s="21"/>
     </row>
-    <row r="169" spans="4:91">
+    <row r="169" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
@@ -20890,7 +20950,7 @@
       <c r="CL169" s="21"/>
       <c r="CM169" s="21"/>
     </row>
-    <row r="170" spans="4:91">
+    <row r="170" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -20937,7 +20997,7 @@
       <c r="CL170" s="21"/>
       <c r="CM170" s="21"/>
     </row>
-    <row r="171" spans="4:91">
+    <row r="171" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -20984,7 +21044,7 @@
       <c r="CL171" s="21"/>
       <c r="CM171" s="21"/>
     </row>
-    <row r="172" spans="4:91">
+    <row r="172" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -21031,7 +21091,7 @@
       <c r="CL172" s="21"/>
       <c r="CM172" s="21"/>
     </row>
-    <row r="173" spans="4:91">
+    <row r="173" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -21078,7 +21138,7 @@
       <c r="CL173" s="21"/>
       <c r="CM173" s="21"/>
     </row>
-    <row r="174" spans="4:91">
+    <row r="174" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
@@ -21125,7 +21185,7 @@
       <c r="CL174" s="21"/>
       <c r="CM174" s="21"/>
     </row>
-    <row r="175" spans="4:91">
+    <row r="175" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
@@ -21172,7 +21232,7 @@
       <c r="CL175" s="21"/>
       <c r="CM175" s="21"/>
     </row>
-    <row r="176" spans="4:91">
+    <row r="176" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
@@ -21219,7 +21279,7 @@
       <c r="CL176" s="21"/>
       <c r="CM176" s="21"/>
     </row>
-    <row r="177" spans="4:91">
+    <row r="177" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
@@ -21266,7 +21326,7 @@
       <c r="CL177" s="21"/>
       <c r="CM177" s="21"/>
     </row>
-    <row r="178" spans="4:91">
+    <row r="178" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
@@ -21313,7 +21373,7 @@
       <c r="CL178" s="21"/>
       <c r="CM178" s="21"/>
     </row>
-    <row r="179" spans="4:91">
+    <row r="179" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
@@ -21360,7 +21420,7 @@
       <c r="CL179" s="21"/>
       <c r="CM179" s="21"/>
     </row>
-    <row r="180" spans="4:91">
+    <row r="180" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
@@ -21407,7 +21467,7 @@
       <c r="CL180" s="21"/>
       <c r="CM180" s="21"/>
     </row>
-    <row r="181" spans="4:91">
+    <row r="181" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
@@ -21454,7 +21514,7 @@
       <c r="CL181" s="21"/>
       <c r="CM181" s="21"/>
     </row>
-    <row r="182" spans="4:91">
+    <row r="182" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
@@ -21501,7 +21561,7 @@
       <c r="CL182" s="21"/>
       <c r="CM182" s="21"/>
     </row>
-    <row r="183" spans="4:91">
+    <row r="183" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
@@ -21548,7 +21608,7 @@
       <c r="CL183" s="21"/>
       <c r="CM183" s="21"/>
     </row>
-    <row r="184" spans="4:91">
+    <row r="184" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
@@ -21595,7 +21655,7 @@
       <c r="CL184" s="21"/>
       <c r="CM184" s="21"/>
     </row>
-    <row r="185" spans="4:91">
+    <row r="185" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
@@ -21642,7 +21702,7 @@
       <c r="CL185" s="21"/>
       <c r="CM185" s="21"/>
     </row>
-    <row r="186" spans="4:91">
+    <row r="186" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
@@ -21689,7 +21749,7 @@
       <c r="CL186" s="21"/>
       <c r="CM186" s="21"/>
     </row>
-    <row r="187" spans="4:91">
+    <row r="187" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
@@ -21736,7 +21796,7 @@
       <c r="CL187" s="21"/>
       <c r="CM187" s="21"/>
     </row>
-    <row r="188" spans="4:91">
+    <row r="188" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
@@ -21783,7 +21843,7 @@
       <c r="CL188" s="21"/>
       <c r="CM188" s="21"/>
     </row>
-    <row r="189" spans="4:91">
+    <row r="189" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
@@ -21830,7 +21890,7 @@
       <c r="CL189" s="21"/>
       <c r="CM189" s="21"/>
     </row>
-    <row r="190" spans="4:91">
+    <row r="190" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
@@ -21877,7 +21937,7 @@
       <c r="CL190" s="21"/>
       <c r="CM190" s="21"/>
     </row>
-    <row r="191" spans="4:91">
+    <row r="191" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
@@ -21924,7 +21984,7 @@
       <c r="CL191" s="21"/>
       <c r="CM191" s="21"/>
     </row>
-    <row r="192" spans="4:91">
+    <row r="192" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
@@ -21971,7 +22031,7 @@
       <c r="CL192" s="21"/>
       <c r="CM192" s="21"/>
     </row>
-    <row r="193" spans="4:91">
+    <row r="193" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
@@ -22018,7 +22078,7 @@
       <c r="CL193" s="21"/>
       <c r="CM193" s="21"/>
     </row>
-    <row r="194" spans="4:91">
+    <row r="194" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
@@ -22065,7 +22125,7 @@
       <c r="CL194" s="21"/>
       <c r="CM194" s="21"/>
     </row>
-    <row r="195" spans="4:91">
+    <row r="195" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
@@ -22112,7 +22172,7 @@
       <c r="CL195" s="21"/>
       <c r="CM195" s="21"/>
     </row>
-    <row r="196" spans="4:91">
+    <row r="196" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
@@ -22159,7 +22219,7 @@
       <c r="CL196" s="21"/>
       <c r="CM196" s="21"/>
     </row>
-    <row r="197" spans="4:91">
+    <row r="197" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
@@ -22206,7 +22266,7 @@
       <c r="CL197" s="21"/>
       <c r="CM197" s="21"/>
     </row>
-    <row r="198" spans="4:91">
+    <row r="198" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
@@ -22253,7 +22313,7 @@
       <c r="CL198" s="21"/>
       <c r="CM198" s="21"/>
     </row>
-    <row r="199" spans="4:91">
+    <row r="199" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
@@ -22300,7 +22360,7 @@
       <c r="CL199" s="21"/>
       <c r="CM199" s="21"/>
     </row>
-    <row r="200" spans="4:91">
+    <row r="200" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -22347,7 +22407,7 @@
       <c r="CL200" s="21"/>
       <c r="CM200" s="21"/>
     </row>
-    <row r="201" spans="4:91">
+    <row r="201" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
@@ -22394,7 +22454,7 @@
       <c r="CL201" s="21"/>
       <c r="CM201" s="21"/>
     </row>
-    <row r="202" spans="4:91">
+    <row r="202" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
@@ -22441,7 +22501,7 @@
       <c r="CL202" s="21"/>
       <c r="CM202" s="21"/>
     </row>
-    <row r="203" spans="4:91">
+    <row r="203" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D203" s="21"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
@@ -22488,7 +22548,7 @@
       <c r="CL203" s="21"/>
       <c r="CM203" s="21"/>
     </row>
-    <row r="204" spans="4:91">
+    <row r="204" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
@@ -22535,7 +22595,7 @@
       <c r="CL204" s="21"/>
       <c r="CM204" s="21"/>
     </row>
-    <row r="205" spans="4:91">
+    <row r="205" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
@@ -22582,7 +22642,7 @@
       <c r="CL205" s="21"/>
       <c r="CM205" s="21"/>
     </row>
-    <row r="206" spans="4:91">
+    <row r="206" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -22629,7 +22689,7 @@
       <c r="CL206" s="21"/>
       <c r="CM206" s="21"/>
     </row>
-    <row r="207" spans="4:91">
+    <row r="207" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D207" s="21"/>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
@@ -22676,7 +22736,7 @@
       <c r="CL207" s="21"/>
       <c r="CM207" s="21"/>
     </row>
-    <row r="208" spans="4:91">
+    <row r="208" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D208" s="21"/>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
@@ -22723,7 +22783,7 @@
       <c r="CL208" s="21"/>
       <c r="CM208" s="21"/>
     </row>
-    <row r="209" spans="4:91">
+    <row r="209" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
@@ -22770,7 +22830,7 @@
       <c r="CL209" s="21"/>
       <c r="CM209" s="21"/>
     </row>
-    <row r="210" spans="4:91">
+    <row r="210" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
@@ -22817,7 +22877,7 @@
       <c r="CL210" s="21"/>
       <c r="CM210" s="21"/>
     </row>
-    <row r="211" spans="4:91">
+    <row r="211" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
@@ -22864,7 +22924,7 @@
       <c r="CL211" s="21"/>
       <c r="CM211" s="21"/>
     </row>
-    <row r="212" spans="4:91">
+    <row r="212" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
@@ -22911,7 +22971,7 @@
       <c r="CL212" s="21"/>
       <c r="CM212" s="21"/>
     </row>
-    <row r="213" spans="4:91">
+    <row r="213" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
@@ -22958,7 +23018,7 @@
       <c r="CL213" s="21"/>
       <c r="CM213" s="21"/>
     </row>
-    <row r="214" spans="4:91">
+    <row r="214" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
@@ -23005,7 +23065,7 @@
       <c r="CL214" s="21"/>
       <c r="CM214" s="21"/>
     </row>
-    <row r="215" spans="4:91">
+    <row r="215" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -23052,7 +23112,7 @@
       <c r="CL215" s="21"/>
       <c r="CM215" s="21"/>
     </row>
-    <row r="216" spans="4:91">
+    <row r="216" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -23099,7 +23159,7 @@
       <c r="CL216" s="21"/>
       <c r="CM216" s="21"/>
     </row>
-    <row r="217" spans="4:91">
+    <row r="217" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
@@ -23146,7 +23206,7 @@
       <c r="CL217" s="21"/>
       <c r="CM217" s="21"/>
     </row>
-    <row r="218" spans="4:91">
+    <row r="218" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -23193,7 +23253,7 @@
       <c r="CL218" s="21"/>
       <c r="CM218" s="21"/>
     </row>
-    <row r="219" spans="4:91">
+    <row r="219" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -23240,7 +23300,7 @@
       <c r="CL219" s="21"/>
       <c r="CM219" s="21"/>
     </row>
-    <row r="220" spans="4:91">
+    <row r="220" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -23287,7 +23347,7 @@
       <c r="CL220" s="21"/>
       <c r="CM220" s="21"/>
     </row>
-    <row r="221" spans="4:91">
+    <row r="221" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
@@ -23334,7 +23394,7 @@
       <c r="CL221" s="21"/>
       <c r="CM221" s="21"/>
     </row>
-    <row r="222" spans="4:91">
+    <row r="222" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D222" s="21"/>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
@@ -23381,7 +23441,7 @@
       <c r="CL222" s="21"/>
       <c r="CM222" s="21"/>
     </row>
-    <row r="223" spans="4:91">
+    <row r="223" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D223" s="21"/>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
@@ -23428,7 +23488,7 @@
       <c r="CL223" s="21"/>
       <c r="CM223" s="21"/>
     </row>
-    <row r="224" spans="4:91">
+    <row r="224" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D224" s="21"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
@@ -23475,7 +23535,7 @@
       <c r="CL224" s="21"/>
       <c r="CM224" s="21"/>
     </row>
-    <row r="225" spans="4:91">
+    <row r="225" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
@@ -23522,7 +23582,7 @@
       <c r="CL225" s="21"/>
       <c r="CM225" s="21"/>
     </row>
-    <row r="226" spans="4:91">
+    <row r="226" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D226" s="21"/>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
@@ -23569,7 +23629,7 @@
       <c r="CL226" s="21"/>
       <c r="CM226" s="21"/>
     </row>
-    <row r="227" spans="4:91">
+    <row r="227" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D227" s="21"/>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
@@ -23616,7 +23676,7 @@
       <c r="CL227" s="21"/>
       <c r="CM227" s="21"/>
     </row>
-    <row r="228" spans="4:91">
+    <row r="228" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D228" s="21"/>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
@@ -23663,7 +23723,7 @@
       <c r="CL228" s="21"/>
       <c r="CM228" s="21"/>
     </row>
-    <row r="229" spans="4:91">
+    <row r="229" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D229" s="21"/>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
@@ -23710,7 +23770,7 @@
       <c r="CL229" s="21"/>
       <c r="CM229" s="21"/>
     </row>
-    <row r="230" spans="4:91">
+    <row r="230" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D230" s="21"/>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
@@ -23757,7 +23817,7 @@
       <c r="CL230" s="21"/>
       <c r="CM230" s="21"/>
     </row>
-    <row r="231" spans="4:91">
+    <row r="231" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D231" s="21"/>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
@@ -23804,7 +23864,7 @@
       <c r="CL231" s="21"/>
       <c r="CM231" s="21"/>
     </row>
-    <row r="232" spans="4:91">
+    <row r="232" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D232" s="21"/>
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
@@ -23851,7 +23911,7 @@
       <c r="CL232" s="21"/>
       <c r="CM232" s="21"/>
     </row>
-    <row r="233" spans="4:91">
+    <row r="233" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D233" s="21"/>
       <c r="E233" s="21"/>
       <c r="F233" s="21"/>
@@ -23898,7 +23958,7 @@
       <c r="CL233" s="21"/>
       <c r="CM233" s="21"/>
     </row>
-    <row r="234" spans="4:91">
+    <row r="234" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D234" s="21"/>
       <c r="E234" s="21"/>
       <c r="F234" s="21"/>
@@ -23945,7 +24005,7 @@
       <c r="CL234" s="21"/>
       <c r="CM234" s="21"/>
     </row>
-    <row r="235" spans="4:91">
+    <row r="235" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D235" s="21"/>
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
@@ -23992,7 +24052,7 @@
       <c r="CL235" s="21"/>
       <c r="CM235" s="21"/>
     </row>
-    <row r="236" spans="4:91">
+    <row r="236" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D236" s="21"/>
       <c r="E236" s="21"/>
       <c r="F236" s="21"/>
@@ -24039,7 +24099,7 @@
       <c r="CL236" s="21"/>
       <c r="CM236" s="21"/>
     </row>
-    <row r="237" spans="4:91">
+    <row r="237" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D237" s="21"/>
       <c r="E237" s="21"/>
       <c r="F237" s="21"/>
@@ -24086,7 +24146,7 @@
       <c r="CL237" s="21"/>
       <c r="CM237" s="21"/>
     </row>
-    <row r="238" spans="4:91">
+    <row r="238" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D238" s="21"/>
       <c r="E238" s="21"/>
       <c r="F238" s="21"/>
@@ -24133,7 +24193,7 @@
       <c r="CL238" s="21"/>
       <c r="CM238" s="21"/>
     </row>
-    <row r="239" spans="4:91">
+    <row r="239" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D239" s="21"/>
       <c r="E239" s="21"/>
       <c r="F239" s="21"/>
@@ -24180,7 +24240,7 @@
       <c r="CL239" s="21"/>
       <c r="CM239" s="21"/>
     </row>
-    <row r="240" spans="4:91">
+    <row r="240" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D240" s="21"/>
       <c r="E240" s="21"/>
       <c r="F240" s="21"/>
@@ -24227,7 +24287,7 @@
       <c r="CL240" s="21"/>
       <c r="CM240" s="21"/>
     </row>
-    <row r="241" spans="4:91">
+    <row r="241" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D241" s="21"/>
       <c r="E241" s="21"/>
       <c r="F241" s="21"/>
@@ -24274,7 +24334,7 @@
       <c r="CL241" s="21"/>
       <c r="CM241" s="21"/>
     </row>
-    <row r="242" spans="4:91">
+    <row r="242" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D242" s="21"/>
       <c r="E242" s="21"/>
       <c r="F242" s="21"/>
@@ -24321,7 +24381,7 @@
       <c r="CL242" s="21"/>
       <c r="CM242" s="21"/>
     </row>
-    <row r="243" spans="4:91">
+    <row r="243" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D243" s="21"/>
       <c r="E243" s="21"/>
       <c r="F243" s="21"/>
@@ -24368,7 +24428,7 @@
       <c r="CL243" s="21"/>
       <c r="CM243" s="21"/>
     </row>
-    <row r="244" spans="4:91">
+    <row r="244" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D244" s="21"/>
       <c r="E244" s="21"/>
       <c r="F244" s="21"/>
@@ -24415,7 +24475,7 @@
       <c r="CL244" s="21"/>
       <c r="CM244" s="21"/>
     </row>
-    <row r="245" spans="4:91">
+    <row r="245" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D245" s="21"/>
       <c r="E245" s="21"/>
       <c r="F245" s="21"/>
@@ -24462,7 +24522,7 @@
       <c r="CL245" s="21"/>
       <c r="CM245" s="21"/>
     </row>
-    <row r="246" spans="4:91">
+    <row r="246" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D246" s="21"/>
       <c r="E246" s="21"/>
       <c r="F246" s="21"/>
@@ -24509,7 +24569,7 @@
       <c r="CL246" s="21"/>
       <c r="CM246" s="21"/>
     </row>
-    <row r="247" spans="4:91">
+    <row r="247" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D247" s="21"/>
       <c r="E247" s="21"/>
       <c r="F247" s="21"/>
@@ -24556,7 +24616,7 @@
       <c r="CL247" s="21"/>
       <c r="CM247" s="21"/>
     </row>
-    <row r="248" spans="4:91">
+    <row r="248" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D248" s="21"/>
       <c r="E248" s="21"/>
       <c r="F248" s="21"/>
@@ -24603,7 +24663,7 @@
       <c r="CL248" s="21"/>
       <c r="CM248" s="21"/>
     </row>
-    <row r="249" spans="4:91">
+    <row r="249" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D249" s="21"/>
       <c r="E249" s="21"/>
       <c r="F249" s="21"/>
@@ -24650,7 +24710,7 @@
       <c r="CL249" s="21"/>
       <c r="CM249" s="21"/>
     </row>
-    <row r="250" spans="4:91">
+    <row r="250" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D250" s="21"/>
       <c r="E250" s="21"/>
       <c r="F250" s="21"/>
@@ -24697,7 +24757,7 @@
       <c r="CL250" s="21"/>
       <c r="CM250" s="21"/>
     </row>
-    <row r="251" spans="4:91">
+    <row r="251" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D251" s="21"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
@@ -24744,7 +24804,7 @@
       <c r="CL251" s="21"/>
       <c r="CM251" s="21"/>
     </row>
-    <row r="252" spans="4:91">
+    <row r="252" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
@@ -24791,7 +24851,7 @@
       <c r="CL252" s="21"/>
       <c r="CM252" s="21"/>
     </row>
-    <row r="253" spans="4:91">
+    <row r="253" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D253" s="21"/>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
@@ -24838,7 +24898,7 @@
       <c r="CL253" s="21"/>
       <c r="CM253" s="21"/>
     </row>
-    <row r="254" spans="4:91">
+    <row r="254" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D254" s="21"/>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
@@ -24885,7 +24945,7 @@
       <c r="CL254" s="21"/>
       <c r="CM254" s="21"/>
     </row>
-    <row r="255" spans="4:91">
+    <row r="255" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D255" s="21"/>
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
@@ -24947,9 +25007,10 @@
     <hyperlink ref="AS6" r:id="rId3" xr:uid="{AA22AE92-F3D2-4B63-9B2E-0A17505DAC2C}"/>
     <hyperlink ref="AS7" r:id="rId4" display="https://iut.u-pec.fr/" xr:uid="{CFDCB693-E63F-481A-8517-C6EBD15F29C7}"/>
     <hyperlink ref="AS8" r:id="rId5" xr:uid="{275DE3EC-E7A7-4E4A-93F1-6B10FCF9E174}"/>
-    <hyperlink ref="AZ8" r:id="rId6" xr:uid="{B543EB02-7A61-4D47-8099-162977D1A478}"/>
+    <hyperlink ref="AZ7" r:id="rId6" xr:uid="{0261B22F-0F18-4840-A53B-5E9A77D9B4FB}"/>
+    <hyperlink ref="AS5" r:id="rId7" xr:uid="{38CE1F01-6759-4790-88F4-0DDEB279C2CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Poursuite_etudes/Appli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{CABC753F-58D7-4D14-848C-C854A8594636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43AFEAB-3FAE-4E14-8015-96F1F782AADF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CABC753F-58D7-4D14-848C-C854A8594636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3BDEDD9-100C-4CC7-9F57-F338AC89F8A3}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1823" windowWidth="9090" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1463" yWindow="-98" windowWidth="19154" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
@@ -212,22 +212,6 @@
     <t>48.939190, 2.354574</t>
   </si>
   <si>
-    <t xml:space="preserve">Formation Continue
-N’Goné SECK
-Tel : 01 49 40 61 32
-fcvae.iutsd@univ-paris13.fr
-Formation Apprentissage
-Patricia NAVATTI
-Tel : 01 49 40 62 04
-apprentissage.iutsd@univ-paris13.fr
-Responsables Formation
-Mikaël GLEONNEC
- Gestion de Crise – Bruno ESTEVE
- Santé Sécurité au Travail – Dalel BOUZID
- Sécurité Incendie – Giovanni PRETE
-</t>
-  </si>
-  <si>
     <t>Ecole</t>
   </si>
   <si>
@@ -344,6 +328,10 @@
   </si>
   <si>
     <t>48.83030169741696, 2.3812734846587276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation Apprentissage, Patricia NAVATTI, Tel : 01 49 40 62 04, apprentissage.iutsd@univ-paris13.fr
+</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1414,7 +1402,7 @@
       </c>
       <c r="CO2" s="20"/>
     </row>
-    <row r="3" spans="1:93" s="20" customFormat="1" ht="228" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:93" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>53</v>
       </c>
@@ -1481,7 +1469,7 @@
       <c r="AW3" s="13"/>
       <c r="AX3" s="13"/>
       <c r="AZ3" s="17" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="BA3" s="31"/>
       <c r="BB3" s="20">
@@ -1587,13 +1575,13 @@
     </row>
     <row r="4" spans="1:93" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -1633,26 +1621,26 @@
       <c r="AM4" s="13"/>
       <c r="AN4" s="13"/>
       <c r="AO4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="AP4" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="AQ4" s="24">
         <v>75013</v>
       </c>
       <c r="AR4" s="25"/>
       <c r="AS4" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AT4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU4" s="19"/>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
       <c r="AZ4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BA4" s="31"/>
       <c r="BB4" s="20">
@@ -1756,13 +1744,13 @@
     </row>
     <row r="5" spans="1:93" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -1802,20 +1790,20 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="AP5" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="AQ5" s="24">
         <v>92290</v>
       </c>
       <c r="AR5" s="25"/>
       <c r="AS5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT5" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="AT5" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="AU5" s="19"/>
       <c r="AW5" s="13"/>
@@ -1926,10 +1914,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1969,20 +1957,20 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
       <c r="AO6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="AP6" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="AQ6" s="24">
         <v>75270</v>
       </c>
       <c r="AR6" s="25"/>
       <c r="AS6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="AT6" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="AU6" s="19"/>
       <c r="AW6" s="13"/>
@@ -2093,10 +2081,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -2136,26 +2124,26 @@
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP7" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="AP7" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="AQ7" s="24">
         <v>94000</v>
       </c>
       <c r="AR7" s="25"/>
       <c r="AS7" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT7" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU7" s="19"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
       <c r="AZ7" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BA7" s="31"/>
       <c r="BB7" s="20">
@@ -2262,10 +2250,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -2305,20 +2293,20 @@
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP8" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="AP8" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="AQ8" s="24">
         <v>95100</v>
       </c>
       <c r="AR8" s="25"/>
       <c r="AS8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU8" s="19"/>
       <c r="AW8" s="13"/>
@@ -2429,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
@@ -2472,10 +2460,10 @@
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
       <c r="AO9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP9" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="AP9" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="AQ9" s="24">
         <v>75013</v>
@@ -2483,7 +2471,7 @@
       <c r="AR9" s="25"/>
       <c r="AS9" s="17"/>
       <c r="AT9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU9" s="19"/>
       <c r="AW9" s="13"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Poursuite_etudes/Appli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{CABC753F-58D7-4D14-848C-C854A8594636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3BDEDD9-100C-4CC7-9F57-F338AC89F8A3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CABC753F-58D7-4D14-848C-C854A8594636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48C4023-15D9-4B00-BBCF-9350D8E0932C}"/>
   <bookViews>
     <workbookView xWindow="1463" yWindow="-98" windowWidth="19154" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1033,7 +1033,7 @@
     <col min="40" max="40" width="37.59765625" style="29" hidden="1" customWidth="1"/>
     <col min="41" max="42" width="33.265625" style="28" customWidth="1"/>
     <col min="43" max="43" width="15" style="39" customWidth="1"/>
-    <col min="44" max="44" width="33.265625" style="29" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="33.265625" style="29" customWidth="1"/>
     <col min="45" max="45" width="42.73046875" style="40" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="42.265625" style="40" customWidth="1"/>
     <col min="47" max="47" width="33.265625" style="28" hidden="1" customWidth="1"/>
@@ -1042,15 +1042,14 @@
     <col min="50" max="50" width="21.1328125" style="40" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="15.3984375" style="29" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="42.73046875" style="29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.73046875" style="29" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="42.73046875" style="29" customWidth="1"/>
     <col min="54" max="54" width="11.3984375" style="29"/>
     <col min="55" max="55" width="24.73046875" style="29" customWidth="1"/>
     <col min="56" max="56" width="11.3984375" style="29"/>
     <col min="57" max="57" width="24.73046875" style="29" customWidth="1"/>
-    <col min="58" max="59" width="12.86328125" style="29" customWidth="1"/>
-    <col min="60" max="65" width="12.86328125" style="29" hidden="1" customWidth="1"/>
-    <col min="66" max="75" width="12.86328125" style="27" hidden="1" customWidth="1"/>
-    <col min="76" max="92" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="58" max="65" width="12.86328125" style="29" customWidth="1"/>
+    <col min="66" max="75" width="12.86328125" style="27" customWidth="1"/>
+    <col min="76" max="92" width="11.3984375" style="29" customWidth="1"/>
     <col min="93" max="16384" width="11.3984375" style="29"/>
   </cols>
   <sheetData>
